--- a/xlsx/果汁_intext.xlsx
+++ b/xlsx/果汁_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_果汁</t>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_果汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>飲料</t>
+    <t>饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%AC%E8%8F%9C</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>營養</t>
+    <t>营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4%E7%B4%A0</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%90%E8%A3%9D%E9%A3%9F%E5%93%81</t>
   </si>
   <si>
-    <t>罐裝食品</t>
+    <t>罐装食品</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%96%B7%E9%9B%BE%E5%B9%B2%E7%87%A5</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E9%85%B8</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E6%B0%A7%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>抗氧化劑</t>
+    <t>抗氧化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%9B%BA%E9%86%87</t>
   </si>
   <si>
-    <t>膽固醇</t>
+    <t>胆固醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%80%E8%83%B1</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%8F%8C</t>
   </si>
   <si>
-    <t>細菌</t>
+    <t>细菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E7%B3%96</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>可口可樂</t>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E5%BA%94%E6%BF%80</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B3%B6%E7%B4%A0%E6%8A%B5%E6%8A%97</t>
   </si>
   <si>
-    <t>胰島素抵抗</t>
+    <t>胰岛素抵抗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9E%9C%E7%B3%96%E7%B3%96%E6%BC%BF</t>
   </si>
   <si>
-    <t>高果糖糖漿</t>
+    <t>高果糖糖浆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E6%B1%81</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E6%80%A7%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>軟性飲料</t>
+    <t>软性饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B0%8F%E5%85%92%E7%A7%91%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國小兒科學會</t>
+    <t>美国小儿科学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%8C%E6%96%AF%E8%B7%AF%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>倫敦希斯路機場</t>
+    <t>伦敦希斯路机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83%E5%BA%97</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%B1%81</t>
   </si>
   <si>
-    <t>蘋果汁</t>
+    <t>苹果汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E6%9F%9A%E6%B1%81</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E6%9E%9C%E6%B1%81</t>
   </si>
   <si>
-    <t>奇異果汁</t>
+    <t>奇异果汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E6%9E%9C%E6%B1%81</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E6%A2%A8%E6%B1%81</t>
   </si>
   <si>
-    <t>鳳梨汁</t>
+    <t>凤梨汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%93%9C%E6%B1%81</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC%E6%B1%81</t>
   </si>
   <si>
-    <t>檸檬汁</t>
+    <t>柠檬汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E8%8E%93%E6%B1%81</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
